--- a/21.06 Компоновочная схема2.xlsx
+++ b/21.06 Компоновочная схема2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFAED4-AACD-4B1B-9381-36BB050A09B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6255D-3CA0-414D-B517-3298A8587AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1637,7 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E7" si="0">C3*D3/1000</f>
+        <f t="shared" ref="E3:E6" si="0">C3*D3/1000</f>
         <v>1.95</v>
       </c>
       <c r="F3" s="4">
@@ -1744,11 +1744,13 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
-        <v>7850</v>
-      </c>
-      <c r="D7" s="9">
-        <v>114</v>
+      <c r="C7" s="9" t="str">
+        <f>C2</f>
+        <v>-</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>D2</f>
+        <v>-</v>
       </c>
       <c r="E7" s="9">
         <v>14</v>

--- a/21.06 Компоновочная схема2.xlsx
+++ b/21.06 Компоновочная схема2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6255D-3CA0-414D-B517-3298A8587AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA366F-5C8A-4B50-99F6-276267F4AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СборНагрузок" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>№ п/п</t>
   </si>
@@ -170,9 +170,6 @@
     </r>
   </si>
   <si>
-    <t>МПа</t>
-  </si>
-  <si>
     <t>Второстепенные балки - ГОСТ 30245-2012</t>
   </si>
   <si>
@@ -204,20 +201,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Bahnschrift SemiLight"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -737,147 +727,150 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,316 +896,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1251,6 +934,268 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1266,20 +1211,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="10">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="5">
       <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="3">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1548,264 +1493,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="11" t="str">
         <f>Таблица1[[#This Row],[h]]</f>
         <v>-</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="11" t="str">
         <f>H4</f>
         <v>-</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>150</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>1.4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f>E2*F2</f>
         <v>210</v>
       </c>
-      <c r="H2" s="22" t="str">
+      <c r="H2" s="20" t="str">
         <f>H4</f>
         <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1300</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E6" si="0">C3*D3/1000</f>
         <v>1.95</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G7" si="1">E3*F3</f>
         <v>2.145</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>150</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1.2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="4" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>800</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>90</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1.2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="4" t="str">
         <f>H2</f>
         <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1800</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1.2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="8" t="str">
         <f>C2</f>
         <v>-</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="8" t="str">
         <f>D2</f>
         <v>-</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>14</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>1.05</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>14.700000000000001</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18" t="str">
+      <c r="F9" s="17"/>
+      <c r="G9" s="16" t="str">
         <f>E9</f>
         <v>нагрузка</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="42">
+        <f>SUM(Таблица1[Qн, ])</f>
+        <v>270.95</v>
+      </c>
+      <c r="G10" s="42">
+        <f>SUM(Таблица1[Qp])</f>
+        <v>352.84500000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1823,129 +1778,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="264" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="23"/>
-    <col min="5" max="5" width="9.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="23"/>
-    <col min="7" max="7" width="12.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="23"/>
+    <col min="1" max="1" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36"/>
-      <c r="B1" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>35</v>
+      <c r="G2" s="52" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="31">
-        <f>5/384*(C3*D3^4)/(E3*F3)*1000</f>
-        <v>6.5883015129682994</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="B3" s="28">
+        <f>5/384*(C3*D3^4)/(E3*F3)</f>
+        <v>6.4609167854431452E-8</v>
+      </c>
+      <c r="C3" s="23">
         <v>541.9</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="40">
         <v>6</v>
       </c>
-      <c r="E3" s="50">
-        <f>2*10^5</f>
-        <v>200000</v>
-      </c>
-      <c r="F3" s="26">
+      <c r="E3" s="40">
+        <v>20394324000</v>
+      </c>
+      <c r="F3" s="24">
         <v>6.94</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>34</v>
+      <c r="G3" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="32">
-        <f>5/384*(C4*D3^4)/(E3*F4)*1000</f>
-        <v>8.7546965057636896</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="29">
+        <f>5/384*(C4*D3^4)/(E3*F4)</f>
+        <v>8.5854245580914476E-8</v>
+      </c>
+      <c r="C4" s="25">
         <v>720.09</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="28">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="26">
         <v>6.94</v>
       </c>
-      <c r="G4" s="38" t="str">
+      <c r="G4" s="32" t="str">
         <f>G3</f>
         <v>40x40x2,0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="47" t="s">
         <v>15</v>
       </c>
     </row>

--- a/21.06 Компоновочная схема2.xlsx
+++ b/21.06 Компоновочная схема2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA366F-5C8A-4B50-99F6-276267F4AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF87283B-D334-41A3-86C0-9D902CF586F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>№ п/п</t>
   </si>
@@ -155,8 +155,50 @@
     <t>м</t>
   </si>
   <si>
+    <t>Второстепенные балки - ГОСТ 30245-2012</t>
+  </si>
+  <si>
+    <t>40x40x2,0</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Сечение</t>
+  </si>
+  <si>
     <r>
-      <t>см</t>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>гр</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
     </r>
     <r>
       <rPr>
@@ -170,38 +212,26 @@
     </r>
   </si>
   <si>
-    <t>Второстепенные балки - ГОСТ 30245-2012</t>
-  </si>
-  <si>
-    <t>40x40x2,0</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Сечение</t>
+    <r>
+      <t>cм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +273,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -472,36 +509,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -545,19 +552,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -584,21 +578,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -721,13 +700,63 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -785,93 +814,101 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1507,34 +1544,34 @@
     <col min="4" max="4" width="8" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1712,23 +1749,23 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="13"/>
@@ -1752,14 +1789,31 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="42">
+    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="54">
         <f>SUM(Таблица1[Qн, ])</f>
         <v>270.95</v>
       </c>
-      <c r="G10" s="42">
-        <f>SUM(Таблица1[Qp])</f>
-        <v>352.84500000000003</v>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54">
+        <v>360.04500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="53">
+        <v>2</v>
+      </c>
+      <c r="E11" s="53">
+        <f>D11*E10</f>
+        <v>541.9</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53">
+        <f>D11*G10</f>
+        <v>720.09</v>
       </c>
     </row>
   </sheetData>
@@ -1778,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1795,16 +1849,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="33" t="s">
-        <v>40</v>
+      <c r="A1" s="27"/>
+      <c r="B1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
@@ -1813,95 +1867,111 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="D2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>34</v>
+      <c r="G2" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="48">
         <f>5/384*(C3*D3^4)/(E3*F3)</f>
-        <v>6.4609167854431452E-8</v>
-      </c>
-      <c r="C3" s="23">
+        <v>1.9329282622544516E-2</v>
+      </c>
+      <c r="C3" s="49">
+        <f>СборНагрузок!E11</f>
         <v>541.9</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="50">
         <v>6</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="50">
         <v>20394324000</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="51">
+        <f>(H3/100)^4</f>
+        <v>2.3197323649600005E-5</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="51">
         <v>6.94</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <f>5/384*(C4*D3^4)/(E3*F4)</f>
-        <v>8.5854245580914476E-8</v>
-      </c>
-      <c r="C4" s="25">
+        <v>2.5685224439321062E-2</v>
+      </c>
+      <c r="C4" s="23">
+        <f>СборНагрузок!G11</f>
         <v>720.09</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="26">
-        <v>6.94</v>
-      </c>
-      <c r="G4" s="32" t="str">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="24">
+        <f>(H4/100)^4</f>
+        <v>2.3197323649600005E-5</v>
+      </c>
+      <c r="G4" s="28" t="str">
         <f>G3</f>
         <v>40x40x2,0</v>
       </c>
+      <c r="H4" s="24">
+        <v>6.94</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>15</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/21.06 Компоновочная схема2.xlsx
+++ b/21.06 Компоновочная схема2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF87283B-D334-41A3-86C0-9D902CF586F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D21E28-270B-4C7E-9BB9-B8D89AB13032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>№ п/п</t>
   </si>
@@ -225,6 +225,9 @@
       </rPr>
       <t>4</t>
     </r>
+  </si>
+  <si>
+    <t>l/200</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -910,6 +913,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1830,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1974,6 +1978,24 @@
         <v>42</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="21" t="str">
+        <f>IF(B3&lt;1/200, "V", "X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="21" t="str">
+        <f>IF(B4&lt;1/200, "V", "X")</f>
+        <v>X</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:F1"/>

--- a/21.06 Компоновочная схема2.xlsx
+++ b/21.06 Компоновочная схема2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D21E28-270B-4C7E-9BB9-B8D89AB13032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB40F6B9-3794-42A4-81E8-1B7BFE9918FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>№ п/п</t>
   </si>
@@ -227,14 +227,31 @@
     </r>
   </si>
   <si>
-    <t>l/200</t>
+    <r>
+      <t>Макс. прогиб &lt; 1/200*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>l</t>
+    </r>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +300,15 @@
       <name val="Inter"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -298,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -472,294 +498,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -817,25 +560,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -845,66 +570,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -913,7 +578,33 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1554,28 +1245,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1753,23 +1444,23 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="13"/>
@@ -1794,28 +1485,28 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="28">
         <f>SUM(Таблица1[Qн, ])</f>
         <v>270.95</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54">
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
         <v>360.04500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="53">
+      <c r="D11" s="27">
         <v>2</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="27">
         <f>D11*E10</f>
         <v>541.9</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27">
         <f>D11*G10</f>
         <v>720.09</v>
       </c>
@@ -1836,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1852,85 +1543,93 @@
     <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="29" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="23">
         <f>5/384*(C3*D3^4)/(E3*F3)</f>
         <v>1.9329282622544516E-2</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="23">
         <f>СборНагрузок!E11</f>
         <v>541.9</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="36">
         <v>6</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="36">
         <v>20394324000</v>
       </c>
-      <c r="F3" s="51">
-        <f>(H3/100)^4</f>
+      <c r="F3" s="23">
+        <f>(J3/100)^4</f>
         <v>2.3197323649600005E-5</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="23">
         <v>6.94</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="23">
         <f>5/384*(C4*D3^4)/(E3*F4)</f>
         <v>2.5685224439321062E-2</v>
       </c>
@@ -1940,67 +1639,102 @@
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="24">
-        <f>(H4/100)^4</f>
+      <c r="F4" s="23">
+        <f>(J4/100)^4</f>
         <v>2.3197323649600005E-5</v>
       </c>
-      <c r="G4" s="28" t="str">
+      <c r="G4" s="23" t="str">
         <f>G3</f>
         <v>40x40x2,0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="23">
         <v>6.94</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="37" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+    </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="21" t="str">
-        <f>IF(B3&lt;1/200, "V", "X")</f>
-        <v>X</v>
-      </c>
+      <c r="A7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="29" t="str">
+        <f>IF(B3&lt;1/200*D3, "V", "X")</f>
+        <v>V</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="21" t="str">
-        <f>IF(B4&lt;1/200, "V", "X")</f>
-        <v>X</v>
-      </c>
+      <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="29" t="str">
+        <f>IF(B4&lt;1/200*D3, "V", "X")</f>
+        <v>V</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/21.06 Компоновочная схема2.xlsx
+++ b/21.06 Компоновочная схема2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB40F6B9-3794-42A4-81E8-1B7BFE9918FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF43A04-ABA6-4913-9F12-292F5F37A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>№ п/п</t>
   </si>
@@ -158,12 +158,6 @@
     <t>Второстепенные балки - ГОСТ 30245-2012</t>
   </si>
   <si>
-    <t>40x40x2,0</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>J</t>
   </si>
   <si>
     <t>Сечение</t>
@@ -245,6 +236,24 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>✗</t>
+  </si>
+  <si>
+    <t>Проверка на прочность при изгибе</t>
+  </si>
+  <si>
+    <t>Wx</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Jx</t>
   </si>
 </sst>
 </file>
@@ -286,14 +295,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +309,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -324,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -498,11 +506,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -572,39 +604,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -940,6 +979,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68495</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>398124</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D276C3A-DFAE-4900-BF5B-3C83540422D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2726933" y="1665270"/>
+          <a:ext cx="2487202" cy="565078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>ДЗ:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> доделать проверку на прочность!</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1485,28 +1604,28 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="29">
         <f>SUM(Таблица1[Qн, ])</f>
         <v>270.95</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28">
+      <c r="F10" s="28"/>
+      <c r="G10" s="29">
         <v>360.04500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="27">
+      <c r="D11" s="28">
         <v>2</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="28">
         <f>D11*E10</f>
         <v>541.9</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28">
         <f>D11*G10</f>
         <v>720.09</v>
       </c>
@@ -1525,22 +1644,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="21"/>
+    <col min="6" max="6" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" style="21" customWidth="1"/>
+    <col min="10" max="12" width="8.77734375" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1552,50 +1673,46 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="37"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" s="34" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="23">
@@ -1606,27 +1723,28 @@
         <f>СборНагрузок!E11</f>
         <v>541.9</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="32">
         <v>6</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="32">
         <v>20394324000</v>
       </c>
       <c r="F3" s="23">
-        <f>(J3/100)^4</f>
+        <f>(G3/100)^4</f>
         <v>2.3197323649600005E-5</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="23">
+      <c r="G3" s="27">
         <v>6.94</v>
       </c>
+      <c r="H3" s="27">
+        <v>40</v>
+      </c>
+      <c r="I3" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="23">
@@ -1637,106 +1755,121 @@
         <f>СборНагрузок!G11</f>
         <v>720.09</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="23">
-        <f>(J4/100)^4</f>
+        <f>(G3/100)^4</f>
         <v>2.3197323649600005E-5</v>
       </c>
-      <c r="G4" s="23" t="str">
-        <f>G3</f>
-        <v>40x40x2,0</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="23">
-        <v>6.94</v>
-      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="23" t="str">
+        <f>IF(B3&lt;1/200*D3, A25, A26)</f>
+        <v>✓</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="23" t="str">
+        <f>IF(B4&lt;1/200*D3, A25, A26)</f>
+        <v>✓</v>
+      </c>
+      <c r="C8" s="23">
+        <f>H3^3/6</f>
+        <v>10666.666666666666</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="25" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="29" t="str">
-        <f>IF(B3&lt;1/200*D3, "V", "X")</f>
-        <v>V</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="29" t="str">
-        <f>IF(B4&lt;1/200*D3, "V", "X")</f>
-        <v>V</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>